--- a/EffortEstimation/EffortEstimationFile.xlsx
+++ b/EffortEstimation/EffortEstimationFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\Syp\Allround Manager\project-proposal-allround-manager-prototype-name\EffortEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2523DE9-FAB3-4676-8896-DEBD4E447838}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA7544-98FF-4F45-B654-D74E69D93E0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A86B2A40-5864-4E44-B1D9-9A99AF58399A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Woche 3: Task until 22.1.19</t>
+  </si>
+  <si>
+    <t>Get and Push data with a android studio app with the json db</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +611,9 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -616,7 +621,6 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -633,7 +637,6 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>

--- a/EffortEstimation/EffortEstimationFile.xlsx
+++ b/EffortEstimation/EffortEstimationFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\Syp\Allround Manager\project-proposal-allround-manager-prototype-name\EffortEstimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SypIonciProject\master\project-proposal-allround-manager-prototype-name\EffortEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA7544-98FF-4F45-B654-D74E69D93E0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989648EA-E0B6-43A2-BC29-80EFE9ED82FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A86B2A40-5864-4E44-B1D9-9A99AF58399A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Orginal Est.</t>
   </si>
   <si>
-    <t>Build an Android Studio Project</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
@@ -90,7 +87,49 @@
     <t>Woche 3: Task until 22.1.19</t>
   </si>
   <si>
-    <t>Get and Push data with a android studio app with the json db</t>
+    <t>Run a fake api and get data with a get request and show data.</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>Desgin a simple event card</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>40min</t>
+  </si>
+  <si>
+    <t>Create Tabs in Ionic Project</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>4min</t>
+  </si>
+  <si>
+    <t>Woche 7 until 22.02.19</t>
+  </si>
+  <si>
+    <t>Build an Ionic Project</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Create a Fab Button where u can choose if u want to create or join an event</t>
+  </si>
+  <si>
+    <t>2.5h</t>
   </si>
 </sst>
 </file>
@@ -480,7 +519,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +558,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,81 +578,83 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -621,6 +662,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -643,7 +685,6 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -651,68 +692,109 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>

--- a/EffortEstimation/EffortEstimationFile.xlsx
+++ b/EffortEstimation/EffortEstimationFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SypIonciProject\master\project-proposal-allround-manager-prototype-name\EffortEstimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\SYP\Allround Manager\project-proposal-allround-manager-prototype-name\EffortEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989648EA-E0B6-43A2-BC29-80EFE9ED82FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA52CD-899E-46EE-A51A-6F4474B4EF84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A86B2A40-5864-4E44-B1D9-9A99AF58399A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="12060" xr2:uid="{A86B2A40-5864-4E44-B1D9-9A99AF58399A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>2.5h</t>
+  </si>
+  <si>
+    <t>Make a simple Adobe Xd design</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,14 +631,18 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5">
+        <v>13</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -797,12 +804,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
